--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="R113" s="2" t="inlineStr"/>
     </row>
-    <row r="114">
+    <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
           <t>A 38614-2023</t>
@@ -7414,7 +7414,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7460,6 +7460,68 @@
         <v>0</v>
       </c>
       <c r="R114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>A 40983-2023</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -837,6 +837,7 @@
 Fällmossa
 Guldlockmossa
 Klippfrullania
+Smal svampklubba
 Stor revmossa
 Västlig hakmossa
 Vågbandad barkbock</t>
@@ -877,7 +878,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +968,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1061,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1148,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1235,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1321,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1406,7 +1407,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1491,7 +1492,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1576,7 +1577,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1662,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1747,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1804,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1860,7 +1861,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,7 +1918,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1974,7 +1975,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2031,7 +2032,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2088,7 +2089,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2145,7 +2146,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2202,7 +2203,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2259,7 +2260,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2321,7 +2322,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2378,7 +2379,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2435,7 +2436,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2492,7 +2493,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2549,7 +2550,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2606,7 +2607,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2663,7 +2664,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2725,7 +2726,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2782,7 +2783,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2839,7 +2840,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2896,7 +2897,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2953,7 +2954,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3010,7 +3011,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3072,7 +3073,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3129,7 +3130,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3186,7 +3187,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3243,7 +3244,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3300,7 +3301,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3357,7 +3358,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3414,7 +3415,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3471,7 +3472,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3528,7 +3529,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3585,7 +3586,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3642,7 +3643,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3699,7 +3700,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3756,7 +3757,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3813,7 +3814,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3870,7 +3871,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3927,7 +3928,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3984,7 +3985,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4041,7 +4042,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4098,7 +4099,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4155,7 +4156,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4217,7 +4218,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4274,7 +4275,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4388,7 +4389,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4445,7 +4446,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4502,7 +4503,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4559,7 +4560,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4616,7 +4617,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4673,7 +4674,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4730,7 +4731,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4787,7 +4788,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4844,7 +4845,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4901,7 +4902,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4958,7 +4959,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5015,7 +5016,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5072,7 +5073,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5129,7 +5130,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5186,7 +5187,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5243,7 +5244,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5300,7 +5301,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5362,7 +5363,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5419,7 +5420,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5476,7 +5477,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5533,7 +5534,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5590,7 +5591,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5647,7 +5648,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5704,7 +5705,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5761,7 +5762,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5818,7 +5819,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5875,7 +5876,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5932,7 +5933,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5989,7 +5990,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6046,7 +6047,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6103,7 +6104,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6160,7 +6161,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6217,7 +6218,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6274,7 +6275,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6331,7 +6332,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6388,7 +6389,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6445,7 +6446,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6502,7 +6503,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6559,7 +6560,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6616,7 +6617,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6673,7 +6674,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6730,7 +6731,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6787,7 +6788,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6844,7 +6845,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6901,7 +6902,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6959,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7016,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7072,7 +7073,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7129,7 +7130,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7186,7 +7187,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7243,7 +7244,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7300,7 +7301,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7357,7 +7358,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7414,7 +7415,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7471,7 +7472,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -837,6 +837,7 @@
 Fällmossa
 Guldlockmossa
 Klippfrullania
+Rödgul trumpetsvamp
 Smal svampklubba
 Stor revmossa
 Västlig hakmossa
@@ -878,7 +879,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1061,7 +1062,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1149,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1236,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1322,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1408,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1492,7 +1493,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1577,7 +1578,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1662,7 +1663,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1747,7 +1748,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1805,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1861,7 +1862,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1918,7 +1919,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1975,7 +1976,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2032,7 +2033,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2089,7 +2090,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2146,7 +2147,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2203,7 +2204,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2260,7 +2261,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2322,7 +2323,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2379,7 +2380,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2436,7 +2437,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2494,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2550,7 +2551,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2607,7 +2608,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2664,7 +2665,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2726,7 +2727,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2783,7 +2784,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2840,7 +2841,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2897,7 +2898,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2954,7 +2955,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3011,7 +3012,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3073,7 +3074,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3130,7 +3131,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3187,7 +3188,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3244,7 +3245,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3301,7 +3302,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3358,7 +3359,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3415,7 +3416,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3472,7 +3473,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3529,7 +3530,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3586,7 +3587,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3643,7 +3644,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3700,7 +3701,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3757,7 +3758,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3814,7 +3815,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3871,7 +3872,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,7 +3929,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3985,7 +3986,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,7 +4043,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,7 +4100,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4156,7 +4157,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4218,7 +4219,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4276,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,7 +4333,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4389,7 +4390,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4503,7 +4504,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,7 +4561,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,7 +4618,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4674,7 +4675,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4788,7 +4789,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,7 +4846,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4902,7 +4903,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4959,7 +4960,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5016,7 +5017,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5073,7 +5074,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5130,7 +5131,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5187,7 +5188,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5244,7 +5245,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5302,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5363,7 +5364,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,7 +5421,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5477,7 +5478,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5534,7 +5535,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5591,7 +5592,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5648,7 +5649,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5705,7 +5706,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5762,7 +5763,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5819,7 +5820,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5876,7 +5877,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5933,7 +5934,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5990,7 +5991,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6047,7 +6048,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6104,7 +6105,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6161,7 +6162,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,7 +6219,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6275,7 +6276,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6332,7 +6333,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6389,7 +6390,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6446,7 +6447,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6503,7 +6504,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6560,7 +6561,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6617,7 +6618,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6674,7 +6675,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6731,7 +6732,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6788,7 +6789,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6845,7 +6846,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6902,7 +6903,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6959,7 +6960,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7016,7 +7017,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7073,7 +7074,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7130,7 +7131,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7187,7 +7188,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7244,7 +7245,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7301,7 +7302,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7358,7 +7359,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7415,7 +7416,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7472,7 +7473,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -645,45 +645,45 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 12138-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 12138-2021.xlsx", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 12138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 12138-2021.png", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/knärot/A 12138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/knärot/A 12138-2021.png", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 12138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 12138-2021.docx", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 12138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 12138-2021.docx", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 12138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 12138-2021.docx", "A 12138-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 12138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 12138-2021.docx", "A 12138-2021")</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 11731-2019</t>
+          <t>A 13111-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43518</v>
+        <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,39 +696,138 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>11</v>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Mindre hackspett
+Spillkråka
+Talltita
+Blåmossa
+Bronshjon
+Fällmossa
+Guldlockmossa
+Klippfrullania
+Rödgul trumpetsvamp
+Smal svampklubba
+Stor revmossa
+Svavelriska
+Västlig hakmossa
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 13111-2022.xlsx", "A 13111-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 13111-2022.png", "A 13111-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 13111-2022.docx", "A 13111-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 13111-2022.docx", "A 13111-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 13111-2022.docx", "A 13111-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 13111-2022.docx", "A 13111-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 11731-2019</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43518</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Kråka
 Mindre hackspett
@@ -746,126 +845,28 @@
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 11731-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 11731-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 11731-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 11731-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 11731-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 11731-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 13111-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44644</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Mindre hackspett
-Spillkråka
-Talltita
-Blåmossa
-Bronshjon
-Fällmossa
-Guldlockmossa
-Klippfrullania
-Rödgul trumpetsvamp
-Smal svampklubba
-Stor revmossa
-Västlig hakmossa
-Vågbandad barkbock</t>
-        </is>
-      </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 13111-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 11731-2019.xlsx", "A 11731-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 13111-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 11731-2019.png", "A 11731-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 13111-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 11731-2019.docx", "A 11731-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 13111-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 11731-2019.docx", "A 11731-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 13111-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 11731-2019.docx", "A 11731-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 13111-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 11731-2019.docx", "A 11731-2019")</f>
         <v/>
       </c>
     </row>
@@ -879,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,27 +936,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25436-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25436-2019.xlsx", "A 25436-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25436-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25436-2019.png", "A 25436-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25436-2019.docx", "A 25436-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25436-2019.docx", "A 25436-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25436-2019.docx", "A 25436-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25436-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25436-2019.docx", "A 25436-2019")</f>
         <v/>
       </c>
     </row>
@@ -969,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,31 +1025,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 5653-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 5653-2019.xlsx", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 5653-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 5653-2019.png", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/knärot/A 5653-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/knärot/A 5653-2019.png", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 5653-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 5653-2019.docx", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 5653-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 5653-2019.docx", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 5653-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 5653-2019.docx", "A 5653-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 5653-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 5653-2019.docx", "A 5653-2019")</f>
         <v/>
       </c>
     </row>
@@ -1062,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,27 +1116,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 1456-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 1456-2020.xlsx", "A 1456-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 1456-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 1456-2020.png", "A 1456-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 1456-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 1456-2020.docx", "A 1456-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 1456-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 1456-2020.docx", "A 1456-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 1456-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 1456-2020.docx", "A 1456-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 1456-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 1456-2020.docx", "A 1456-2020")</f>
         <v/>
       </c>
     </row>
@@ -1149,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,27 +1203,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 13029-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 13029-2020.xlsx", "A 13029-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 13029-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 13029-2020.png", "A 13029-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 13029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 13029-2020.docx", "A 13029-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 13029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 13029-2020.docx", "A 13029-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 13029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 13029-2020.docx", "A 13029-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 13029-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 13029-2020.docx", "A 13029-2020")</f>
         <v/>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,27 +1289,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25432-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25432-2019.xlsx", "A 25432-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25432-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25432-2019.png", "A 25432-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25432-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25432-2019.docx", "A 25432-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25432-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25432-2019.docx", "A 25432-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25432-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25432-2019.docx", "A 25432-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25432-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25432-2019.docx", "A 25432-2019")</f>
         <v/>
       </c>
     </row>
@@ -1322,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,27 +1375,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 38382-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 38382-2019.xlsx", "A 38382-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 38382-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 38382-2019.png", "A 38382-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 38382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 38382-2019.docx", "A 38382-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 38382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 38382-2019.docx", "A 38382-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 38382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 38382-2019.docx", "A 38382-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 38382-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 38382-2019.docx", "A 38382-2019")</f>
         <v/>
       </c>
     </row>
@@ -1408,7 +1409,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,27 +1460,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 67849-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 67849-2018.xlsx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 67849-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 67849-2018.png", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 67849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 67849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 67849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 67849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
     </row>
@@ -1493,7 +1494,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,27 +1545,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25391-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25391-2019.xlsx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25391-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25391-2019.png", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25391-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
     </row>
@@ -1578,7 +1579,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,27 +1630,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 53693-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 53693-2019.xlsx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 53693-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 53693-2019.png", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 53693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 53693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 53693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 53693-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
     </row>
@@ -1663,7 +1664,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,27 +1715,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 23339-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 23339-2023.xlsx", "A 23339-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 23339-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 23339-2023.png", "A 23339-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 23339-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 23339-2023.docx", "A 23339-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 23339-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 23339-2023.docx", "A 23339-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 23339-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 23339-2023.docx", "A 23339-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 23339-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 23339-2023.docx", "A 23339-2023")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1749,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1806,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1862,7 +1863,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1919,7 +1920,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1976,7 +1977,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2033,7 +2034,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2090,7 +2091,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2147,7 +2148,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2204,7 +2205,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2261,7 +2262,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2324,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2381,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2438,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2495,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2552,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2609,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2666,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2727,7 +2728,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2784,7 +2785,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2842,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2899,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2955,7 +2956,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3012,7 +3013,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3075,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3132,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3189,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3246,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3303,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3360,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3417,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3531,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3588,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3645,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3702,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3759,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3872,7 +3873,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3930,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3987,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4044,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4101,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4158,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4220,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4277,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4334,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4391,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4448,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4505,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4562,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4618,7 +4619,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4676,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4732,7 +4733,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4789,7 +4790,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4846,7 +4847,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4903,7 +4904,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4960,7 +4961,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5017,7 +5018,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5074,7 +5075,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5131,7 +5132,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5188,7 +5189,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5245,7 +5246,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5303,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5365,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5422,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5479,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5536,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5593,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5650,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5707,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5764,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5821,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5878,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5935,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +5992,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6048,7 +6049,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6106,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6163,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6220,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6277,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6334,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6391,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6448,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6505,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6562,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6619,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6676,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6733,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6790,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6847,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6904,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6961,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7018,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7075,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7132,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7189,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7246,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7303,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7360,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7417,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7474,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>43440</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>43749</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43361</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43367</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43383</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43385</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43411</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43471</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43475</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43476</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43483</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43505</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43521</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>43532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43535</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>43735</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43776</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43780</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43787</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43837</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43850</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43859</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43872</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43873</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43879</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>43902</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>43951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>43965</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>44004</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44144</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44176</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>44179</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>44193</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>44210</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44273</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44369</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44443</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44510</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44515</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44523</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44613</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44638</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44805</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44887</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44896</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44903</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44949</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44957</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44984</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>44985</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45028</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45029</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45033</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45035</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45036</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45040</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45043</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45054</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45079</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45091</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45145</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,14 +1402,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 67849-2018</t>
+          <t>A 40983-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43440</v>
+        <v>45173</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,17 +1421,22 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>12.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1446,55 +1451,56 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Spillkråka
+Talltita</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 67849-2018.xlsx", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 40983-2023.xlsx", "A 40983-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 67849-2018.png", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 40983-2023.png", "A 40983-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 67849-2018.docx", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 40983-2023.docx", "A 40983-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 67849-2018.docx", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 40983-2023.docx", "A 40983-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 67849-2018.docx", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 40983-2023.docx", "A 40983-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 67849-2018.docx", "A 67849-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 40983-2023.docx", "A 40983-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25391-2019</t>
+          <t>A 67849-2018</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43606</v>
+        <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1507,16 +1513,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1541,45 +1547,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kungsörn</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25391-2019.xlsx", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 67849-2018.xlsx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25391-2019.png", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 67849-2018.png", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25391-2019.docx", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25391-2019.docx", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25391-2019.docx", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25391-2019.docx", "A 25391-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 67849-2018.docx", "A 67849-2018")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53693-2019</t>
+          <t>A 25391-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43749</v>
+        <v>43606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1592,17 +1598,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>11.2</v>
+        <v>10.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1626,45 +1632,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Havstulpanlav</t>
+          <t>Kungsörn</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 53693-2019.xlsx", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 25391-2019.xlsx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 53693-2019.png", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 25391-2019.png", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 53693-2019.docx", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 53693-2019.docx", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 53693-2019.docx", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 53693-2019.docx", "A 53693-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 25391-2019.docx", "A 25391-2019")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23339-2023</t>
+          <t>A 53693-2019</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45076</v>
+        <v>43749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,13 +1683,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.4</v>
+        <v>11.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1711,45 +1717,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Havstulpanlav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 23339-2023.xlsx", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 53693-2019.xlsx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 23339-2023.png", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 53693-2019.png", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 23339-2023.docx", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 23339-2023.docx", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 23339-2023.docx", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 23339-2023.docx", "A 23339-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 53693-2019.docx", "A 53693-2019")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45010-2018</t>
+          <t>A 23339-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43361</v>
+        <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,10 +1768,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>7.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1792,21 +1798,49 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/artfynd/A 23339-2023.xlsx", "A 23339-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/kartor/A 23339-2023.png", "A 23339-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomål/A 23339-2023.docx", "A 23339-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/klagomålsmail/A 23339-2023.docx", "A 23339-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsyn/A 23339-2023.docx", "A 23339-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALE/tillsynsmail/A 23339-2023.docx", "A 23339-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46353-2018</t>
+          <t>A 45010-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43367</v>
+        <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1819,7 +1853,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1856,14 +1890,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51458-2018</t>
+          <t>A 46353-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43383</v>
+        <v>43367</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1876,7 +1910,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>13.9</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1913,14 +1947,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 52043-2018</t>
+          <t>A 51458-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43385</v>
+        <v>43383</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1933,7 +1967,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>13.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,14 +2004,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58589-2018</t>
+          <t>A 52043-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43410</v>
+        <v>43385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1990,7 +2024,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2027,14 +2061,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 59319-2018</t>
+          <t>A 58589-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43411</v>
+        <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2047,7 +2081,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2084,14 +2118,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 67125-2018</t>
+          <t>A 59319-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43438</v>
+        <v>43411</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2138,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2175,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 67877-2018</t>
+          <t>A 67125-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43440</v>
+        <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2195,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>10.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2232,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67859-2018</t>
+          <t>A 67877-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2252,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2289,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 756-2019</t>
+          <t>A 67859-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43471</v>
+        <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2274,13 +2308,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2317,14 +2346,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2149-2019</t>
+          <t>A 756-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43475</v>
+        <v>43471</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,8 +2365,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2374,14 +2408,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2485-2019</t>
+          <t>A 2149-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,7 +2428,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,14 +2465,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4350-2019</t>
+          <t>A 2485-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2451,7 +2485,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2488,14 +2522,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3560-2019</t>
+          <t>A 4350-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43481</v>
+        <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2508,7 +2542,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2545,14 +2579,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 4367-2019</t>
+          <t>A 3560-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43483</v>
+        <v>43481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2565,7 +2599,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2602,14 +2636,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9188-2019</t>
+          <t>A 4367-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43505</v>
+        <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2622,7 +2656,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2659,14 +2693,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11978-2019</t>
+          <t>A 9188-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43521</v>
+        <v>43505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,13 +2712,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2721,14 +2750,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14048-2019</t>
+          <t>A 11978-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43532</v>
+        <v>43521</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,8 +2769,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2778,14 +2812,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14335-2019</t>
+          <t>A 14048-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43535</v>
+        <v>43532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2798,7 +2832,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2835,14 +2869,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15443-2019</t>
+          <t>A 14335-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43542</v>
+        <v>43535</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2855,7 +2889,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2892,14 +2926,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50538-2019</t>
+          <t>A 15443-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43735</v>
+        <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2912,7 +2946,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10.9</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2949,14 +2983,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59735-2019</t>
+          <t>A 50538-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43776</v>
+        <v>43735</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2969,7 +3003,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>10.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3006,14 +3040,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60395-2019</t>
+          <t>A 59735-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43780</v>
+        <v>43776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,13 +3059,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3068,14 +3097,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62130-2019</t>
+          <t>A 60395-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43787</v>
+        <v>43780</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3087,8 +3116,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3125,14 +3159,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 377-2020</t>
+          <t>A 62130-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43837</v>
+        <v>43787</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3145,7 +3179,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3182,14 +3216,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2843-2020</t>
+          <t>A 377-2020</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43850</v>
+        <v>43837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3202,7 +3236,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3239,14 +3273,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4879-2020</t>
+          <t>A 2843-2020</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43859</v>
+        <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3259,7 +3293,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3296,14 +3330,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7706-2020</t>
+          <t>A 4879-2020</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43872</v>
+        <v>43859</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3316,7 +3350,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3353,14 +3387,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7804-2020</t>
+          <t>A 7706-2020</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3373,7 +3407,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3410,14 +3444,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9154-2020</t>
+          <t>A 7804-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3430,7 +3464,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3467,14 +3501,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10079-2020</t>
+          <t>A 9154-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43886</v>
+        <v>43879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3487,7 +3521,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3524,14 +3558,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13432-2020</t>
+          <t>A 10079-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43902</v>
+        <v>43886</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3544,7 +3578,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3581,14 +3615,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21077-2020</t>
+          <t>A 13432-2020</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43951</v>
+        <v>43902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3601,7 +3635,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3638,14 +3672,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23099-2020</t>
+          <t>A 21077-2020</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43965</v>
+        <v>43951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3658,7 +3692,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3695,14 +3729,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27496-2020</t>
+          <t>A 23099-2020</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43993</v>
+        <v>43965</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3715,7 +3749,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3752,14 +3786,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29258-2020</t>
+          <t>A 27496-2020</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44004</v>
+        <v>43993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3772,7 +3806,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3809,14 +3843,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52839-2020</t>
+          <t>A 29258-2020</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44118</v>
+        <v>44004</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3829,7 +3863,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3866,14 +3900,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58099-2020</t>
+          <t>A 52839-2020</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44144</v>
+        <v>44118</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3886,7 +3920,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3923,14 +3957,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 66466-2020</t>
+          <t>A 58099-2020</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44176</v>
+        <v>44144</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3943,7 +3977,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3980,14 +4014,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 66551-2020</t>
+          <t>A 66466-2020</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4000,7 +4034,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4037,14 +4071,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 69359-2020</t>
+          <t>A 66551-2020</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4057,7 +4091,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4094,14 +4128,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 69325-2020</t>
+          <t>A 69359-2020</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4114,7 +4148,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4151,14 +4185,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2003-2021</t>
+          <t>A 69325-2020</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44210</v>
+        <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4170,13 +4204,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4213,14 +4242,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3293-2021</t>
+          <t>A 2003-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4232,8 +4261,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4270,14 +4304,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13462-2021</t>
+          <t>A 3293-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44273</v>
+        <v>44217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4290,7 +4324,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4327,14 +4361,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17283-2021</t>
+          <t>A 13462-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44298</v>
+        <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4347,7 +4381,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4384,14 +4418,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 17283-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44308</v>
+        <v>44298</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4404,7 +4438,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4441,14 +4475,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21026-2021</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44319</v>
+        <v>44308</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4461,7 +4495,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4498,14 +4532,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31566-2021</t>
+          <t>A 21026-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44369</v>
+        <v>44319</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4518,7 +4552,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4555,14 +4589,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31568-2021</t>
+          <t>A 31566-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4609,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4612,14 +4646,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35148-2021</t>
+          <t>A 31568-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44384</v>
+        <v>44369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4632,7 +4666,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4669,14 +4703,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36394-2021</t>
+          <t>A 35148-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44389</v>
+        <v>44384</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4689,7 +4723,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4726,14 +4760,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45986-2021</t>
+          <t>A 36394-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44441</v>
+        <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4746,7 +4780,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4783,14 +4817,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 45986-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4803,7 +4837,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4840,14 +4874,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46391-2021</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44443</v>
+        <v>44441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4860,7 +4894,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4897,14 +4931,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 46391-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44456</v>
+        <v>44443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4917,7 +4951,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4954,14 +4988,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53144-2021</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44468</v>
+        <v>44456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4974,7 +5008,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5011,14 +5045,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 53144-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44510</v>
+        <v>44468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5031,7 +5065,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5102,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44515</v>
+        <v>44510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5122,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5159,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5179,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5216,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44523</v>
+        <v>44515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5236,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5273,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 67165-2021</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5293,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 67165-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44546</v>
+        <v>44523</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,13 +5349,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5358,14 +5387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44564</v>
+        <v>44546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5377,8 +5406,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5415,14 +5449,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5469,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5472,14 +5506,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5526,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5529,14 +5563,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8609-2022</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44613</v>
+        <v>44585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5583,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5586,14 +5620,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 8609-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44636</v>
+        <v>44613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5640,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5643,14 +5677,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44638</v>
+        <v>44636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5697,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5700,14 +5734,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14736-2022</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44656</v>
+        <v>44638</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5754,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5757,14 +5791,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 14736-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5811,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5814,14 +5848,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44662</v>
+        <v>44656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5868,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5871,14 +5905,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44805</v>
+        <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5925,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5928,14 +5962,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44887</v>
+        <v>44805</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5982,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5985,14 +6019,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44896</v>
+        <v>44887</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6039,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6042,14 +6076,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44903</v>
+        <v>44896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6096,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6099,14 +6133,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44949</v>
+        <v>44903</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6156,14 +6190,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4665-2023</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44957</v>
+        <v>44949</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6210,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6213,14 +6247,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 4665-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44963</v>
+        <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6267,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6270,14 +6304,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6290,7 +6324,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6327,14 +6361,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44973</v>
+        <v>44963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6381,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6384,14 +6418,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9630-2023</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44984</v>
+        <v>44973</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6404,7 +6438,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.4</v>
+        <v>10.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6441,14 +6475,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9891-2023</t>
+          <t>A 9630-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44985</v>
+        <v>44984</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6461,7 +6495,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6498,14 +6532,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9896-2023</t>
+          <t>A 9891-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6518,7 +6552,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6555,14 +6589,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9886-2023</t>
+          <t>A 9896-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6575,7 +6609,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6612,14 +6646,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 9886-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45028</v>
+        <v>44985</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6632,7 +6666,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6669,14 +6703,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16389-2023</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45029</v>
+        <v>45028</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,7 +6723,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6726,14 +6760,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16876-2023</t>
+          <t>A 16389-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45033</v>
+        <v>45029</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,7 +6780,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6783,14 +6817,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17404-2023</t>
+          <t>A 16876-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45035</v>
+        <v>45033</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6803,7 +6837,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6840,14 +6874,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 17534-2023</t>
+          <t>A 17404-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6860,7 +6894,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6897,14 +6931,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 18120-2023</t>
+          <t>A 17534-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45040</v>
+        <v>45036</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6917,7 +6951,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6954,14 +6988,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 18120-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45043</v>
+        <v>45040</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6974,7 +7008,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7011,14 +7045,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20066-2023</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45054</v>
+        <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7031,7 +7065,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7068,14 +7102,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 20066-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7088,7 +7122,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7125,14 +7159,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20586-2023</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45057</v>
+        <v>45054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7145,7 +7179,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7182,14 +7216,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24207-2023</t>
+          <t>A 20586-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45079</v>
+        <v>45057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7202,7 +7236,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7239,14 +7273,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 24207-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7259,7 +7293,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7296,14 +7330,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32833-2023</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45124</v>
+        <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7316,7 +7350,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7353,14 +7387,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35132-2023</t>
+          <t>A 32833-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45145</v>
+        <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7373,7 +7407,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7410,14 +7444,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38614-2023</t>
+          <t>A 35132-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45162</v>
+        <v>45145</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7430,7 +7464,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7467,14 +7501,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40983-2023</t>
+          <t>A 38614-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45173</v>
+        <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7486,13 +7520,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>12.6</v>
+        <v>4.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45173</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>43749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>43367</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>43383</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43411</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43471</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43476</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43521</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43535</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43735</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43780</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43787</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43859</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43872</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43873</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43886</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43965</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44004</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44118</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44144</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44176</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44210</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44298</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44308</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44319</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44384</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>44443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>44456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44523</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44564</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44638</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44805</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44887</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44903</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44949</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44973</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44984</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44985</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45028</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45029</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45033</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45035</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45036</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45040</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45079</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45145</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45173</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>43749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>43367</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>43383</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43411</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43471</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43476</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43521</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43535</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43735</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43780</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43787</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43859</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43872</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43873</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43886</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43965</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44004</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44118</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44144</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44176</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44210</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44298</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44308</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44319</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44384</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>44443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>44456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44523</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44564</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44638</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44805</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44887</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44903</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44949</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44973</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44984</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44985</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45028</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45029</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45033</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45035</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45036</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45040</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45079</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45145</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -572,7 +572,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>43518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>43606</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>43843</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>43900</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>43606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43685</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45173</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43606</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>43749</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43361</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>43367</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>43383</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>43385</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>43410</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43411</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43438</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43471</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43475</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43476</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>43505</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>43521</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43535</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43735</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43776</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43780</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43787</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43850</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43859</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43872</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43873</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43879</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43886</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43902</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43965</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44004</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44118</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44144</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44176</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44179</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44210</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44298</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44308</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>44319</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44369</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44369</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44384</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44441</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44441</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>44443</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>44456</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44510</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44515</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44523</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44523</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>44564</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44613</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44638</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44656</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44805</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44887</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44903</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44949</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44957</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44973</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44984</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44985</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44985</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44985</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45028</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45029</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45033</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45035</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45036</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45040</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45043</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45054</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45079</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45091</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45145</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
